--- a/natmiOut/OldD4/LR-pairs_lrc2p/Jag2-Notch1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Jag2-Notch1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.538645594707</v>
+        <v>18.74341666666666</v>
       </c>
       <c r="H2">
-        <v>18.538645594707</v>
+        <v>56.23025</v>
       </c>
       <c r="I2">
-        <v>0.7850409575646955</v>
+        <v>0.759296164886796</v>
       </c>
       <c r="J2">
-        <v>0.7850409575646955</v>
+        <v>0.772020429027817</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>53.7368122527561</v>
+        <v>56.01527666666667</v>
       </c>
       <c r="N2">
-        <v>53.7368122527561</v>
+        <v>168.04583</v>
       </c>
       <c r="O2">
-        <v>0.4899202373741286</v>
+        <v>0.4883616647765734</v>
       </c>
       <c r="P2">
-        <v>0.4899202373741286</v>
+        <v>0.5237161609491596</v>
       </c>
       <c r="Q2">
-        <v>996.207717743154</v>
+        <v>1049.917670261944</v>
       </c>
       <c r="R2">
-        <v>996.207717743154</v>
+        <v>9449.259032357499</v>
       </c>
       <c r="S2">
-        <v>0.3846074522785088</v>
+        <v>0.3708111391425833</v>
       </c>
       <c r="T2">
-        <v>0.3846074522785088</v>
+        <v>0.4043195752647715</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.538645594707</v>
+        <v>18.74341666666666</v>
       </c>
       <c r="H3">
-        <v>18.538645594707</v>
+        <v>56.23025</v>
       </c>
       <c r="I3">
-        <v>0.7850409575646955</v>
+        <v>0.759296164886796</v>
       </c>
       <c r="J3">
-        <v>0.7850409575646955</v>
+        <v>0.772020429027817</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.078403595828309</v>
+        <v>9.149483999999999</v>
       </c>
       <c r="N3">
-        <v>8.078403595828309</v>
+        <v>27.448452</v>
       </c>
       <c r="O3">
-        <v>0.07365106416540794</v>
+        <v>0.0797685471532371</v>
       </c>
       <c r="P3">
-        <v>0.07365106416540794</v>
+        <v>0.08554331818550501</v>
       </c>
       <c r="Q3">
-        <v>149.7626612340677</v>
+        <v>171.492590897</v>
       </c>
       <c r="R3">
-        <v>149.7626612340677</v>
+        <v>1543.433318073</v>
       </c>
       <c r="S3">
-        <v>0.05781910193807068</v>
+        <v>0.06056795193204448</v>
       </c>
       <c r="T3">
-        <v>0.05781910193807068</v>
+        <v>0.06604118920603663</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.538645594707</v>
+        <v>18.74341666666666</v>
       </c>
       <c r="H4">
-        <v>18.538645594707</v>
+        <v>56.23025</v>
       </c>
       <c r="I4">
-        <v>0.7850409575646955</v>
+        <v>0.759296164886796</v>
       </c>
       <c r="J4">
-        <v>0.7850409575646955</v>
+        <v>0.772020429027817</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.4870230256977</v>
+        <v>12.129045</v>
       </c>
       <c r="N4">
-        <v>10.4870230256977</v>
+        <v>36.387135</v>
       </c>
       <c r="O4">
-        <v>0.09561052460521154</v>
+        <v>0.1057454494708373</v>
       </c>
       <c r="P4">
-        <v>0.09561052460521154</v>
+        <v>0.1134007945935868</v>
       </c>
       <c r="Q4">
-        <v>194.4152032169415</v>
+        <v>227.33974420375</v>
       </c>
       <c r="R4">
-        <v>194.4152032169415</v>
+        <v>2046.05769783375</v>
       </c>
       <c r="S4">
-        <v>0.07505817778933814</v>
+        <v>0.08029211423743726</v>
       </c>
       <c r="T4">
-        <v>0.07505817778933814</v>
+        <v>0.08754773009423621</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.538645594707</v>
+        <v>18.74341666666666</v>
       </c>
       <c r="H5">
-        <v>18.538645594707</v>
+        <v>56.23025</v>
       </c>
       <c r="I5">
-        <v>0.7850409575646955</v>
+        <v>0.759296164886796</v>
       </c>
       <c r="J5">
-        <v>0.7850409575646955</v>
+        <v>0.772020429027817</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.1757231483377</v>
+        <v>14.177359</v>
       </c>
       <c r="N5">
-        <v>14.1757231483377</v>
+        <v>42.532077</v>
       </c>
       <c r="O5">
-        <v>0.129240521695206</v>
+        <v>0.1236033999184949</v>
       </c>
       <c r="P5">
-        <v>0.129240521695206</v>
+        <v>0.1325515550349214</v>
       </c>
       <c r="Q5">
-        <v>262.7987074957168</v>
+        <v>265.7321469699166</v>
       </c>
       <c r="R5">
-        <v>262.7987074957168</v>
+        <v>2391.58932272925</v>
       </c>
       <c r="S5">
-        <v>0.1014591029077653</v>
+        <v>0.0938515875250821</v>
       </c>
       <c r="T5">
-        <v>0.1014591029077653</v>
+        <v>0.1023325083863643</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.538645594707</v>
+        <v>18.74341666666666</v>
       </c>
       <c r="H6">
-        <v>18.538645594707</v>
+        <v>56.23025</v>
       </c>
       <c r="I6">
-        <v>0.7850409575646955</v>
+        <v>0.759296164886796</v>
       </c>
       <c r="J6">
-        <v>0.7850409575646955</v>
+        <v>0.772020429027817</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.2068563485794</v>
+        <v>23.229232</v>
       </c>
       <c r="N6">
-        <v>23.2068563485794</v>
+        <v>46.458464</v>
       </c>
       <c r="O6">
-        <v>0.2115776521600459</v>
+        <v>0.2025209386808572</v>
       </c>
       <c r="P6">
-        <v>0.2115776521600459</v>
+        <v>0.1447881712368271</v>
       </c>
       <c r="Q6">
-        <v>430.2236852135896</v>
+        <v>435.3951742226666</v>
       </c>
       <c r="R6">
-        <v>430.2236852135896</v>
+        <v>2612.371045336</v>
       </c>
       <c r="S6">
-        <v>0.1660971226510125</v>
+        <v>0.1537733720496489</v>
       </c>
       <c r="T6">
-        <v>0.1660971226510125</v>
+        <v>0.1117794260764083</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.612689450498111</v>
+        <v>0.6575503333333333</v>
       </c>
       <c r="H7">
-        <v>0.612689450498111</v>
+        <v>1.972651</v>
       </c>
       <c r="I7">
-        <v>0.02594506219193011</v>
+        <v>0.02663737648258906</v>
       </c>
       <c r="J7">
-        <v>0.02594506219193011</v>
+        <v>0.02708376490131472</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.7368122527561</v>
+        <v>56.01527666666667</v>
       </c>
       <c r="N7">
-        <v>53.7368122527561</v>
+        <v>168.04583</v>
       </c>
       <c r="O7">
-        <v>0.4899202373741286</v>
+        <v>0.4883616647765734</v>
       </c>
       <c r="P7">
-        <v>0.4899202373741286</v>
+        <v>0.5237161609491596</v>
       </c>
       <c r="Q7">
-        <v>32.92397797066129</v>
+        <v>36.83286384392556</v>
       </c>
       <c r="R7">
-        <v>32.92397797066129</v>
+        <v>331.49577459533</v>
       </c>
       <c r="S7">
-        <v>0.01271101102775693</v>
+        <v>0.01300867352431754</v>
       </c>
       <c r="T7">
-        <v>0.01271101102775693</v>
+        <v>0.01418420537816614</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.612689450498111</v>
+        <v>0.6575503333333333</v>
       </c>
       <c r="H8">
-        <v>0.612689450498111</v>
+        <v>1.972651</v>
       </c>
       <c r="I8">
-        <v>0.02594506219193011</v>
+        <v>0.02663737648258906</v>
       </c>
       <c r="J8">
-        <v>0.02594506219193011</v>
+        <v>0.02708376490131472</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.078403595828309</v>
+        <v>9.149483999999999</v>
       </c>
       <c r="N8">
-        <v>8.078403595828309</v>
+        <v>27.448452</v>
       </c>
       <c r="O8">
-        <v>0.07365106416540794</v>
+        <v>0.0797685471532371</v>
       </c>
       <c r="P8">
-        <v>0.07365106416540794</v>
+        <v>0.08554331818550501</v>
       </c>
       <c r="Q8">
-        <v>4.949552660030011</v>
+        <v>6.016246254027999</v>
       </c>
       <c r="R8">
-        <v>4.949552660030011</v>
+        <v>54.14621628625201</v>
       </c>
       <c r="S8">
-        <v>0.001910881440273344</v>
+        <v>0.002124824821989934</v>
       </c>
       <c r="T8">
-        <v>0.001910881440273344</v>
+        <v>0.002316835118614578</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.612689450498111</v>
+        <v>0.6575503333333333</v>
       </c>
       <c r="H9">
-        <v>0.612689450498111</v>
+        <v>1.972651</v>
       </c>
       <c r="I9">
-        <v>0.02594506219193011</v>
+        <v>0.02663737648258906</v>
       </c>
       <c r="J9">
-        <v>0.02594506219193011</v>
+        <v>0.02708376490131472</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.4870230256977</v>
+        <v>12.129045</v>
       </c>
       <c r="N9">
-        <v>10.4870230256977</v>
+        <v>36.387135</v>
       </c>
       <c r="O9">
-        <v>0.09561052460521154</v>
+        <v>0.1057454494708373</v>
       </c>
       <c r="P9">
-        <v>0.09561052460521154</v>
+        <v>0.1134007945935868</v>
       </c>
       <c r="Q9">
-        <v>6.425288374975762</v>
+        <v>7.975457582765</v>
       </c>
       <c r="R9">
-        <v>6.425288374975762</v>
+        <v>71.77911824488501</v>
       </c>
       <c r="S9">
-        <v>0.002480621007085277</v>
+        <v>0.002816781348875292</v>
       </c>
       <c r="T9">
-        <v>0.002480621007085277</v>
+        <v>0.003071320460394986</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.612689450498111</v>
+        <v>0.6575503333333333</v>
       </c>
       <c r="H10">
-        <v>0.612689450498111</v>
+        <v>1.972651</v>
       </c>
       <c r="I10">
-        <v>0.02594506219193011</v>
+        <v>0.02663737648258906</v>
       </c>
       <c r="J10">
-        <v>0.02594506219193011</v>
+        <v>0.02708376490131472</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.1757231483377</v>
+        <v>14.177359</v>
       </c>
       <c r="N10">
-        <v>14.1757231483377</v>
+        <v>42.532077</v>
       </c>
       <c r="O10">
-        <v>0.129240521695206</v>
+        <v>0.1236033999184949</v>
       </c>
       <c r="P10">
-        <v>0.129240521695206</v>
+        <v>0.1325515550349214</v>
       </c>
       <c r="Q10">
-        <v>8.685316026168378</v>
+        <v>9.322327136236334</v>
       </c>
       <c r="R10">
-        <v>8.685316026168378</v>
+        <v>83.90094422612701</v>
       </c>
       <c r="S10">
-        <v>0.003353153373099612</v>
+        <v>0.003292470298156967</v>
       </c>
       <c r="T10">
-        <v>0.003353153373099612</v>
+        <v>0.003589995153869492</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.612689450498111</v>
+        <v>0.6575503333333333</v>
       </c>
       <c r="H11">
-        <v>0.612689450498111</v>
+        <v>1.972651</v>
       </c>
       <c r="I11">
-        <v>0.02594506219193011</v>
+        <v>0.02663737648258906</v>
       </c>
       <c r="J11">
-        <v>0.02594506219193011</v>
+        <v>0.02708376490131472</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.2068563485794</v>
+        <v>23.229232</v>
       </c>
       <c r="N11">
-        <v>23.2068563485794</v>
+        <v>46.458464</v>
       </c>
       <c r="O11">
-        <v>0.2115776521600459</v>
+        <v>0.2025209386808572</v>
       </c>
       <c r="P11">
-        <v>0.2115776521600459</v>
+        <v>0.1447881712368271</v>
       </c>
       <c r="Q11">
-        <v>14.21859606399971</v>
+        <v>15.27438924467733</v>
       </c>
       <c r="R11">
-        <v>14.21859606399971</v>
+        <v>91.64633546806401</v>
       </c>
       <c r="S11">
-        <v>0.005489395343714946</v>
+        <v>0.005394626489249326</v>
       </c>
       <c r="T11">
-        <v>0.005489395343714946</v>
+        <v>0.003921408790269524</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.0396377346745</v>
+        <v>1.780015</v>
       </c>
       <c r="H12">
-        <v>1.0396377346745</v>
+        <v>5.340045</v>
       </c>
       <c r="I12">
-        <v>0.0440246941762716</v>
+        <v>0.07210844143184338</v>
       </c>
       <c r="J12">
-        <v>0.0440246941762716</v>
+        <v>0.07331683269997642</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.7368122527561</v>
+        <v>56.01527666666667</v>
       </c>
       <c r="N12">
-        <v>53.7368122527561</v>
+        <v>168.04583</v>
       </c>
       <c r="O12">
-        <v>0.4899202373741286</v>
+        <v>0.4883616647765734</v>
       </c>
       <c r="P12">
-        <v>0.4899202373741286</v>
+        <v>0.5237161609491596</v>
       </c>
       <c r="Q12">
-        <v>55.86681775908427</v>
+        <v>99.70803269581666</v>
       </c>
       <c r="R12">
-        <v>55.86681775908427</v>
+        <v>897.37229426235</v>
       </c>
       <c r="S12">
-        <v>0.0215685886211624</v>
+        <v>0.03521499850209907</v>
       </c>
       <c r="T12">
-        <v>0.0215685886211624</v>
+        <v>0.03839721015458346</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.0396377346745</v>
+        <v>1.780015</v>
       </c>
       <c r="H13">
-        <v>1.0396377346745</v>
+        <v>5.340045</v>
       </c>
       <c r="I13">
-        <v>0.0440246941762716</v>
+        <v>0.07210844143184338</v>
       </c>
       <c r="J13">
-        <v>0.0440246941762716</v>
+        <v>0.07331683269997642</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.078403595828309</v>
+        <v>9.149483999999999</v>
       </c>
       <c r="N13">
-        <v>8.078403595828309</v>
+        <v>27.448452</v>
       </c>
       <c r="O13">
-        <v>0.07365106416540794</v>
+        <v>0.0797685471532371</v>
       </c>
       <c r="P13">
-        <v>0.07365106416540794</v>
+        <v>0.08554331818550501</v>
       </c>
       <c r="Q13">
-        <v>8.398613214153279</v>
+        <v>16.28621876226</v>
       </c>
       <c r="R13">
-        <v>8.398613214153279</v>
+        <v>146.57596886034</v>
       </c>
       <c r="S13">
-        <v>0.003242465575639041</v>
+        <v>0.005751985610502434</v>
       </c>
       <c r="T13">
-        <v>0.003242465575639041</v>
+        <v>0.006271765148007521</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.0396377346745</v>
+        <v>1.780015</v>
       </c>
       <c r="H14">
-        <v>1.0396377346745</v>
+        <v>5.340045</v>
       </c>
       <c r="I14">
-        <v>0.0440246941762716</v>
+        <v>0.07210844143184338</v>
       </c>
       <c r="J14">
-        <v>0.0440246941762716</v>
+        <v>0.07331683269997642</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.4870230256977</v>
+        <v>12.129045</v>
       </c>
       <c r="N14">
-        <v>10.4870230256977</v>
+        <v>36.387135</v>
       </c>
       <c r="O14">
-        <v>0.09561052460521154</v>
+        <v>0.1057454494708373</v>
       </c>
       <c r="P14">
-        <v>0.09561052460521154</v>
+        <v>0.1134007945935868</v>
       </c>
       <c r="Q14">
-        <v>10.90270486191568</v>
+        <v>21.589882035675</v>
       </c>
       <c r="R14">
-        <v>10.90270486191568</v>
+        <v>194.308938321075</v>
       </c>
       <c r="S14">
-        <v>0.004209224105777329</v>
+        <v>0.007625139549851828</v>
       </c>
       <c r="T14">
-        <v>0.004209224105777329</v>
+        <v>0.008314187085262392</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.0396377346745</v>
+        <v>1.780015</v>
       </c>
       <c r="H15">
-        <v>1.0396377346745</v>
+        <v>5.340045</v>
       </c>
       <c r="I15">
-        <v>0.0440246941762716</v>
+        <v>0.07210844143184338</v>
       </c>
       <c r="J15">
-        <v>0.0440246941762716</v>
+        <v>0.07331683269997642</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.1757231483377</v>
+        <v>14.177359</v>
       </c>
       <c r="N15">
-        <v>14.1757231483377</v>
+        <v>42.532077</v>
       </c>
       <c r="O15">
-        <v>0.129240521695206</v>
+        <v>0.1236033999184949</v>
       </c>
       <c r="P15">
-        <v>0.129240521695206</v>
+        <v>0.1325515550349214</v>
       </c>
       <c r="Q15">
-        <v>14.73761670131068</v>
+        <v>25.235911680385</v>
       </c>
       <c r="R15">
-        <v>14.73761670131068</v>
+        <v>227.123205123465</v>
       </c>
       <c r="S15">
-        <v>0.005689774442813239</v>
+        <v>0.008912848523799505</v>
       </c>
       <c r="T15">
-        <v>0.005689774442813239</v>
+        <v>0.009718260184617052</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.0396377346745</v>
+        <v>1.780015</v>
       </c>
       <c r="H16">
-        <v>1.0396377346745</v>
+        <v>5.340045</v>
       </c>
       <c r="I16">
-        <v>0.0440246941762716</v>
+        <v>0.07210844143184338</v>
       </c>
       <c r="J16">
-        <v>0.0440246941762716</v>
+        <v>0.07331683269997642</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.2068563485794</v>
+        <v>23.229232</v>
       </c>
       <c r="N16">
-        <v>23.2068563485794</v>
+        <v>46.458464</v>
       </c>
       <c r="O16">
-        <v>0.2115776521600459</v>
+        <v>0.2025209386808572</v>
       </c>
       <c r="P16">
-        <v>0.2115776521600459</v>
+        <v>0.1447881712368271</v>
       </c>
       <c r="Q16">
-        <v>24.12672356315363</v>
+        <v>41.34838139847999</v>
       </c>
       <c r="R16">
-        <v>24.12672356315363</v>
+        <v>248.09028839088</v>
       </c>
       <c r="S16">
-        <v>0.009314641430879591</v>
+        <v>0.01460346924559054</v>
       </c>
       <c r="T16">
-        <v>0.009314641430879591</v>
+        <v>0.01061541012750599</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.27612689796967</v>
+        <v>2.283699333333333</v>
       </c>
       <c r="H17">
-        <v>2.27612689796967</v>
+        <v>6.851098</v>
       </c>
       <c r="I17">
-        <v>0.09638529580774968</v>
+        <v>0.09251270333430135</v>
       </c>
       <c r="J17">
-        <v>0.09638529580774968</v>
+        <v>0.09406302865933584</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>53.7368122527561</v>
+        <v>56.01527666666667</v>
       </c>
       <c r="N17">
-        <v>53.7368122527561</v>
+        <v>168.04583</v>
       </c>
       <c r="O17">
-        <v>0.4899202373741286</v>
+        <v>0.4883616647765734</v>
       </c>
       <c r="P17">
-        <v>0.4899202373741286</v>
+        <v>0.5237161609491596</v>
       </c>
       <c r="Q17">
-        <v>122.3118037796443</v>
+        <v>127.9220499801489</v>
       </c>
       <c r="R17">
-        <v>122.3118037796443</v>
+        <v>1151.29844982134</v>
       </c>
       <c r="S17">
-        <v>0.04722110700150833</v>
+        <v>0.04517965781332067</v>
       </c>
       <c r="T17">
-        <v>0.04722110700150833</v>
+        <v>0.04926232825671815</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.27612689796967</v>
+        <v>2.283699333333333</v>
       </c>
       <c r="H18">
-        <v>2.27612689796967</v>
+        <v>6.851098</v>
       </c>
       <c r="I18">
-        <v>0.09638529580774968</v>
+        <v>0.09251270333430135</v>
       </c>
       <c r="J18">
-        <v>0.09638529580774968</v>
+        <v>0.09406302865933584</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.078403595828309</v>
+        <v>9.149483999999999</v>
       </c>
       <c r="N18">
-        <v>8.078403595828309</v>
+        <v>27.448452</v>
       </c>
       <c r="O18">
-        <v>0.07365106416540794</v>
+        <v>0.0797685471532371</v>
       </c>
       <c r="P18">
-        <v>0.07365106416540794</v>
+        <v>0.08554331818550501</v>
       </c>
       <c r="Q18">
-        <v>18.38747171711972</v>
+        <v>20.894670511144</v>
       </c>
       <c r="R18">
-        <v>18.38747171711972</v>
+        <v>188.052034600296</v>
       </c>
       <c r="S18">
-        <v>0.007098879606138397</v>
+        <v>0.007379603938195652</v>
       </c>
       <c r="T18">
-        <v>0.007098879606138397</v>
+        <v>0.008046463590097842</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.27612689796967</v>
+        <v>2.283699333333333</v>
       </c>
       <c r="H19">
-        <v>2.27612689796967</v>
+        <v>6.851098</v>
       </c>
       <c r="I19">
-        <v>0.09638529580774968</v>
+        <v>0.09251270333430135</v>
       </c>
       <c r="J19">
-        <v>0.09638529580774968</v>
+        <v>0.09406302865933584</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.4870230256977</v>
+        <v>12.129045</v>
       </c>
       <c r="N19">
-        <v>10.4870230256977</v>
+        <v>36.387135</v>
       </c>
       <c r="O19">
-        <v>0.09561052460521154</v>
+        <v>0.1057454494708373</v>
       </c>
       <c r="P19">
-        <v>0.09561052460521154</v>
+        <v>0.1134007945935868</v>
       </c>
       <c r="Q19">
-        <v>23.86979518841781</v>
+        <v>27.69909198047</v>
       </c>
       <c r="R19">
-        <v>23.86979518841781</v>
+        <v>249.29182782423</v>
       </c>
       <c r="S19">
-        <v>0.009215448696407443</v>
+        <v>0.00978279739584793</v>
       </c>
       <c r="T19">
-        <v>0.009215448696407443</v>
+        <v>0.01066682219184801</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.27612689796967</v>
+        <v>2.283699333333333</v>
       </c>
       <c r="H20">
-        <v>2.27612689796967</v>
+        <v>6.851098</v>
       </c>
       <c r="I20">
-        <v>0.09638529580774968</v>
+        <v>0.09251270333430135</v>
       </c>
       <c r="J20">
-        <v>0.09638529580774968</v>
+        <v>0.09406302865933584</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.1757231483377</v>
+        <v>14.177359</v>
       </c>
       <c r="N20">
-        <v>14.1757231483377</v>
+        <v>42.532077</v>
       </c>
       <c r="O20">
-        <v>0.129240521695206</v>
+        <v>0.1236033999184949</v>
       </c>
       <c r="P20">
-        <v>0.129240521695206</v>
+        <v>0.1325515550349214</v>
       </c>
       <c r="Q20">
-        <v>32.26574475610273</v>
+        <v>32.37682529672733</v>
       </c>
       <c r="R20">
-        <v>32.26574475610273</v>
+        <v>291.391427670546</v>
       </c>
       <c r="S20">
-        <v>0.01245688591394032</v>
+        <v>0.01143488466777073</v>
       </c>
       <c r="T20">
-        <v>0.01245688591394032</v>
+        <v>0.01246820072008935</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.27612689796967</v>
+        <v>2.283699333333333</v>
       </c>
       <c r="H21">
-        <v>2.27612689796967</v>
+        <v>6.851098</v>
       </c>
       <c r="I21">
-        <v>0.09638529580774968</v>
+        <v>0.09251270333430135</v>
       </c>
       <c r="J21">
-        <v>0.09638529580774968</v>
+        <v>0.09406302865933584</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>23.2068563485794</v>
+        <v>23.229232</v>
       </c>
       <c r="N21">
-        <v>23.2068563485794</v>
+        <v>46.458464</v>
       </c>
       <c r="O21">
-        <v>0.2115776521600459</v>
+        <v>0.2025209386808572</v>
       </c>
       <c r="P21">
-        <v>0.2115776521600459</v>
+        <v>0.1447881712368271</v>
       </c>
       <c r="Q21">
-        <v>52.82174995231977</v>
+        <v>53.04858163224533</v>
       </c>
       <c r="R21">
-        <v>52.82174995231977</v>
+        <v>318.291489793472</v>
       </c>
       <c r="S21">
-        <v>0.02039297458975519</v>
+        <v>0.01873575951916638</v>
       </c>
       <c r="T21">
-        <v>0.02039297458975519</v>
+        <v>0.01361921390058249</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.14777724808388</v>
+        <v>1.22057</v>
       </c>
       <c r="H22">
-        <v>1.14777724808388</v>
+        <v>2.44114</v>
       </c>
       <c r="I22">
-        <v>0.04860399025935321</v>
+        <v>0.04944531386447028</v>
       </c>
       <c r="J22">
-        <v>0.04860399025935321</v>
+        <v>0.03351594471155588</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>53.7368122527561</v>
+        <v>56.01527666666667</v>
       </c>
       <c r="N22">
-        <v>53.7368122527561</v>
+        <v>168.04583</v>
       </c>
       <c r="O22">
-        <v>0.4899202373741286</v>
+        <v>0.4883616647765734</v>
       </c>
       <c r="P22">
-        <v>0.4899202373741286</v>
+        <v>0.5237161609491596</v>
       </c>
       <c r="Q22">
-        <v>61.67789048826852</v>
+        <v>68.37056624103333</v>
       </c>
       <c r="R22">
-        <v>61.67789048826852</v>
+        <v>410.2233974462</v>
       </c>
       <c r="S22">
-        <v>0.02381207844519216</v>
+        <v>0.02414719579425289</v>
       </c>
       <c r="T22">
-        <v>0.02381207844519216</v>
+        <v>0.01755284189492034</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.14777724808388</v>
+        <v>1.22057</v>
       </c>
       <c r="H23">
-        <v>1.14777724808388</v>
+        <v>2.44114</v>
       </c>
       <c r="I23">
-        <v>0.04860399025935321</v>
+        <v>0.04944531386447028</v>
       </c>
       <c r="J23">
-        <v>0.04860399025935321</v>
+        <v>0.03351594471155588</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.078403595828309</v>
+        <v>9.149483999999999</v>
       </c>
       <c r="N23">
-        <v>8.078403595828309</v>
+        <v>27.448452</v>
       </c>
       <c r="O23">
-        <v>0.07365106416540794</v>
+        <v>0.0797685471532371</v>
       </c>
       <c r="P23">
-        <v>0.07365106416540794</v>
+        <v>0.08554331818550501</v>
       </c>
       <c r="Q23">
-        <v>9.272207848130737</v>
+        <v>11.16758568588</v>
       </c>
       <c r="R23">
-        <v>9.272207848130737</v>
+        <v>67.00551411527999</v>
       </c>
       <c r="S23">
-        <v>0.003579735605286486</v>
+        <v>0.003944180850504605</v>
       </c>
       <c r="T23">
-        <v>0.003579735605286486</v>
+        <v>0.002867065122748419</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.14777724808388</v>
+        <v>1.22057</v>
       </c>
       <c r="H24">
-        <v>1.14777724808388</v>
+        <v>2.44114</v>
       </c>
       <c r="I24">
-        <v>0.04860399025935321</v>
+        <v>0.04944531386447028</v>
       </c>
       <c r="J24">
-        <v>0.04860399025935321</v>
+        <v>0.03351594471155588</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.4870230256977</v>
+        <v>12.129045</v>
       </c>
       <c r="N24">
-        <v>10.4870230256977</v>
+        <v>36.387135</v>
       </c>
       <c r="O24">
-        <v>0.09561052460521154</v>
+        <v>0.1057454494708373</v>
       </c>
       <c r="P24">
-        <v>0.09561052460521154</v>
+        <v>0.1134007945935868</v>
       </c>
       <c r="Q24">
-        <v>12.03676642902759</v>
+        <v>14.80434845565</v>
       </c>
       <c r="R24">
-        <v>12.03676642902759</v>
+        <v>88.8260907339</v>
       </c>
       <c r="S24">
-        <v>0.004647053006603351</v>
+        <v>0.005228616938825035</v>
       </c>
       <c r="T24">
-        <v>0.004647053006603351</v>
+        <v>0.003800734761845159</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.14777724808388</v>
+        <v>1.22057</v>
       </c>
       <c r="H25">
-        <v>1.14777724808388</v>
+        <v>2.44114</v>
       </c>
       <c r="I25">
-        <v>0.04860399025935321</v>
+        <v>0.04944531386447028</v>
       </c>
       <c r="J25">
-        <v>0.04860399025935321</v>
+        <v>0.03351594471155588</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.1757231483377</v>
+        <v>14.177359</v>
       </c>
       <c r="N25">
-        <v>14.1757231483377</v>
+        <v>42.532077</v>
       </c>
       <c r="O25">
-        <v>0.129240521695206</v>
+        <v>0.1236033999184949</v>
       </c>
       <c r="P25">
-        <v>0.129240521695206</v>
+        <v>0.1325515550349214</v>
       </c>
       <c r="Q25">
-        <v>16.270572504798</v>
+        <v>17.30445907463</v>
       </c>
       <c r="R25">
-        <v>16.270572504798</v>
+        <v>103.82675444778</v>
       </c>
       <c r="S25">
-        <v>0.006281605057587519</v>
+        <v>0.006111608903685621</v>
       </c>
       <c r="T25">
-        <v>0.006281605057587519</v>
+        <v>0.004442590589981183</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.14777724808388</v>
+        <v>1.22057</v>
       </c>
       <c r="H26">
-        <v>1.14777724808388</v>
+        <v>2.44114</v>
       </c>
       <c r="I26">
-        <v>0.04860399025935321</v>
+        <v>0.04944531386447028</v>
       </c>
       <c r="J26">
-        <v>0.04860399025935321</v>
+        <v>0.03351594471155588</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>23.2068563485794</v>
+        <v>23.229232</v>
       </c>
       <c r="N26">
-        <v>23.2068563485794</v>
+        <v>46.458464</v>
       </c>
       <c r="O26">
-        <v>0.2115776521600459</v>
+        <v>0.2025209386808572</v>
       </c>
       <c r="P26">
-        <v>0.2115776521600459</v>
+        <v>0.1447881712368271</v>
       </c>
       <c r="Q26">
-        <v>26.63630171645038</v>
+        <v>28.35290370224</v>
       </c>
       <c r="R26">
-        <v>26.63630171645038</v>
+        <v>113.41161480896</v>
       </c>
       <c r="S26">
-        <v>0.01028351814468369</v>
+        <v>0.01001371137720212</v>
       </c>
       <c r="T26">
-        <v>0.01028351814468369</v>
+        <v>0.004852712342060783</v>
       </c>
     </row>
   </sheetData>
